--- a/food-service/2021/2021-q2-nutrient-analysis-wk4.xlsx
+++ b/food-service/2021/2021-q2-nutrient-analysis-wk4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView activeTab="0" windowHeight="11985" windowWidth="25200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -3351,204 +3351,214 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="29">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <color rgb="FF44546A"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF333333"/>
       <sz val="8"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="serif"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF333333"/>
       <sz val="10"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="serif"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="8"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="10"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
       <i/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF808080"/>
       <sz val="10"/>
-      <color indexed="23"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="12"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="9"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3595,139 +3605,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E2F3"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF8EAADB"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFED7D31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE4D5"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF7CAAC"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFF4B083"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFECECEC"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFDADADA"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC8C8C8"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFF2CB"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFEE598"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFD965"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFBDD6EE"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF9CC2E5"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFE2EFD9"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC5E0B3"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFA8D08D"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -3746,38 +3756,72 @@
   </fills>
   <borders count="14">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFA1B8E1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF8EAADB"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3792,7 +3836,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3807,16 +3853,26 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -3831,7 +3887,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3846,18 +3904,26 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3872,23 +3938,31 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -3898,145 +3972,153 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4393,14 +4475,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y303"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P297" sqref="P297:Q297"/>
+    <sheetView zoomScale="60" workbookViewId="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100">
+      <selection pane="topLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -4414,12 +4495,7 @@
     <col min="16" max="16" width="2.140625" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="0.85546875" customWidth="1"/>
-    <col min="21" max="22" width="0.28515625" customWidth="1"/>
-    <col min="23" max="23" width="221.85546875" customWidth="1"/>
-    <col min="24" max="25" width="121.85546875" customWidth="1"/>
-    <col min="26" max="26" width="0.7109375" customWidth="1"/>
+    <col min="19" max="19" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4447,10 +4523,6 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="22"/>
@@ -4473,10 +4545,6 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="22"/>
@@ -4499,10 +4567,6 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="25" t="s">
@@ -4525,8 +4589,6 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
@@ -4555,8 +4617,6 @@
         <v>9</v>
       </c>
       <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
@@ -4585,8 +4645,6 @@
         <v>9</v>
       </c>
       <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
@@ -4615,8 +4673,6 @@
         <v>16</v>
       </c>
       <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
@@ -4645,8 +4701,6 @@
         <v>20</v>
       </c>
       <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
@@ -4671,8 +4725,6 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
@@ -4697,8 +4749,6 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="7"/>
@@ -4719,8 +4769,6 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="20" t="s">
@@ -4743,8 +4791,6 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="10" t="s">
@@ -4767,10 +4813,8 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1">
+    </row>
+    <row ht="18" customHeight="1" r="14" spans="1:25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -4789,13 +4833,6 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="11" t="s">
@@ -4818,13 +4855,6 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="15" t="s">
@@ -4847,13 +4877,6 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="16"/>
@@ -4874,13 +4897,6 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="9"/>
@@ -4903,13 +4919,6 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="11" t="s">
@@ -4932,15 +4941,8 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-    </row>
-    <row r="20" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="20" spans="1:25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -4985,13 +4987,6 @@
       <c r="R20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="s">
@@ -5038,13 +5033,6 @@
       <c r="R21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="s">
@@ -5091,13 +5079,6 @@
       <c r="R22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
@@ -5144,13 +5125,6 @@
       <c r="R23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
@@ -5197,13 +5171,6 @@
       <c r="R24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
@@ -5250,13 +5217,6 @@
       <c r="R25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2" t="s">
@@ -5303,13 +5263,6 @@
       <c r="R26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="s">
@@ -5356,13 +5309,6 @@
       <c r="R27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2" t="s">
@@ -5409,13 +5355,6 @@
       <c r="R28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
@@ -5462,13 +5401,6 @@
       <c r="R29" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="9"/>
@@ -5489,13 +5421,6 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="11" t="s">
@@ -5518,15 +5443,8 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-    </row>
-    <row r="32" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="32" spans="1:25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -5571,13 +5489,6 @@
       <c r="R32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="s">
@@ -5624,13 +5535,6 @@
       <c r="R33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
@@ -5677,13 +5581,6 @@
       <c r="R34" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="2" t="s">
@@ -5730,13 +5627,6 @@
       <c r="R35" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2" t="s">
@@ -5783,13 +5673,6 @@
       <c r="R36" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2" t="s">
@@ -5836,15 +5719,8 @@
       <c r="R37" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="38" spans="1:25">
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
@@ -5889,13 +5765,6 @@
       <c r="R38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2" t="s">
@@ -5942,13 +5811,6 @@
       <c r="R39" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2" t="s">
@@ -5995,13 +5857,6 @@
       <c r="R40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="2" t="s">
@@ -6048,13 +5903,6 @@
       <c r="R41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="9"/>
@@ -6075,13 +5923,6 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="11" t="s">
@@ -6104,15 +5945,8 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-    </row>
-    <row r="44" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="44" spans="1:25">
       <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
@@ -6157,13 +5991,6 @@
       <c r="R44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="2" t="s">
@@ -6210,13 +6037,6 @@
       <c r="R45" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="2" t="s">
@@ -6263,13 +6083,6 @@
       <c r="R46" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="2" t="s">
@@ -6316,13 +6129,6 @@
       <c r="R47" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="2" t="s">
@@ -6369,15 +6175,8 @@
       <c r="R48" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-    </row>
-    <row r="49" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="49" spans="1:25">
       <c r="A49" s="2" t="s">
         <v>251</v>
       </c>
@@ -6422,15 +6221,8 @@
       <c r="R49" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-    </row>
-    <row r="50" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="50" spans="1:25">
       <c r="A50" s="2" t="s">
         <v>260</v>
       </c>
@@ -6475,13 +6267,6 @@
       <c r="R50" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="2" t="s">
@@ -6528,13 +6313,6 @@
       <c r="R51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="2" t="s">
@@ -6581,13 +6359,6 @@
       <c r="R52" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="2" t="s">
@@ -6634,13 +6405,6 @@
       <c r="R53" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="2" t="s">
@@ -6687,13 +6451,6 @@
       <c r="R54" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="2" t="s">
@@ -6740,13 +6497,6 @@
       <c r="R55" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="2" t="s">
@@ -6793,13 +6543,6 @@
       <c r="R56" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
@@ -6846,13 +6589,6 @@
       <c r="R57" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="9"/>
@@ -6873,13 +6609,6 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="9"/>
@@ -6902,13 +6631,6 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="11" t="s">
@@ -6931,15 +6653,8 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-    </row>
-    <row r="61" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="61" spans="1:25">
       <c r="A61" s="4" t="s">
         <v>29</v>
       </c>
@@ -6984,13 +6699,6 @@
       <c r="R61" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="2" t="s">
@@ -7037,13 +6745,6 @@
       <c r="R62" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="2" t="s">
@@ -7090,13 +6791,6 @@
       <c r="R63" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="2" t="s">
@@ -7143,13 +6837,6 @@
       <c r="R64" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="2" t="s">
@@ -7196,13 +6883,6 @@
       <c r="R65" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="2" t="s">
@@ -7249,13 +6929,6 @@
       <c r="R66" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="2" t="s">
@@ -7302,13 +6975,6 @@
       <c r="R67" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="2" t="s">
@@ -7355,13 +7021,6 @@
       <c r="R68" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="2" t="s">
@@ -7408,13 +7067,6 @@
       <c r="R69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="2" t="s">
@@ -7461,13 +7113,6 @@
       <c r="R70" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="9"/>
@@ -7488,13 +7133,6 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="11" t="s">
@@ -7517,15 +7155,8 @@
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-    </row>
-    <row r="73" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="73" spans="1:25">
       <c r="A73" s="4" t="s">
         <v>29</v>
       </c>
@@ -7570,13 +7201,6 @@
       <c r="R73" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="2" t="s">
@@ -7623,13 +7247,6 @@
       <c r="R74" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="2" t="s">
@@ -7676,13 +7293,6 @@
       <c r="R75" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="2" t="s">
@@ -7729,15 +7339,8 @@
       <c r="R76" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-    </row>
-    <row r="77" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="77" spans="1:25">
       <c r="A77" s="2" t="s">
         <v>378</v>
       </c>
@@ -7782,13 +7385,6 @@
       <c r="R77" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="2" t="s">
@@ -7835,13 +7431,6 @@
       <c r="R78" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="2" t="s">
@@ -7888,13 +7477,6 @@
       <c r="R79" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="2" t="s">
@@ -7941,13 +7523,6 @@
       <c r="R80" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="2" t="s">
@@ -7994,13 +7569,6 @@
       <c r="R81" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9"/>
@@ -8021,13 +7589,6 @@
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="11" t="s">
@@ -8050,15 +7611,8 @@
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
-    </row>
-    <row r="84" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="84" spans="1:25">
       <c r="A84" s="4" t="s">
         <v>29</v>
       </c>
@@ -8103,13 +7657,6 @@
       <c r="R84" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="2" t="s">
@@ -8156,13 +7703,6 @@
       <c r="R85" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="2" t="s">
@@ -8209,15 +7749,8 @@
       <c r="R86" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-    </row>
-    <row r="87" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="87" spans="1:25">
       <c r="A87" s="2" t="s">
         <v>412</v>
       </c>
@@ -8262,15 +7795,8 @@
       <c r="R87" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-    </row>
-    <row r="88" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="88" spans="1:25">
       <c r="A88" s="2" t="s">
         <v>417</v>
       </c>
@@ -8315,13 +7841,6 @@
       <c r="R88" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
-      <c r="U88" s="9"/>
-      <c r="V88" s="9"/>
-      <c r="W88" s="9"/>
-      <c r="X88" s="9"/>
-      <c r="Y88" s="9"/>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="2" t="s">
@@ -8368,13 +7887,6 @@
       <c r="R89" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
-      <c r="X89" s="9"/>
-      <c r="Y89" s="9"/>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="2" t="s">
@@ -8421,13 +7933,6 @@
       <c r="R90" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="2" t="s">
@@ -8474,13 +7979,6 @@
       <c r="R91" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="2" t="s">
@@ -8527,13 +8025,6 @@
       <c r="R92" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="2" t="s">
@@ -8580,13 +8071,6 @@
       <c r="R93" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
-      <c r="X93" s="9"/>
-      <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="2" t="s">
@@ -8633,13 +8117,6 @@
       <c r="R94" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="2" t="s">
@@ -8686,13 +8163,6 @@
       <c r="R95" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="2" t="s">
@@ -8739,13 +8209,6 @@
       <c r="R96" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
-      <c r="X96" s="9"/>
-      <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="9"/>
@@ -8766,13 +8229,6 @@
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9"/>
-      <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
-      <c r="X97" s="9"/>
-      <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" s="9"/>
@@ -8795,13 +8251,6 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
       <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="14"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="11" t="s">
@@ -8824,15 +8273,8 @@
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
-      <c r="Y99" s="11"/>
-    </row>
-    <row r="100" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="100" spans="1:25">
       <c r="A100" s="4" t="s">
         <v>29</v>
       </c>
@@ -8877,13 +8319,6 @@
       <c r="R100" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
-      <c r="X100" s="9"/>
-      <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="2" t="s">
@@ -8930,13 +8365,6 @@
       <c r="R101" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9"/>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
-      <c r="X101" s="9"/>
-      <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="2" t="s">
@@ -8983,13 +8411,6 @@
       <c r="R102" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="2" t="s">
@@ -9036,13 +8457,6 @@
       <c r="R103" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
-      <c r="X103" s="9"/>
-      <c r="Y103" s="9"/>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" s="2" t="s">
@@ -9089,13 +8503,6 @@
       <c r="R104" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="2" t="s">
@@ -9142,15 +8549,8 @@
       <c r="R105" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="9"/>
-    </row>
-    <row r="106" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="106" spans="1:25">
       <c r="A106" s="2" t="s">
         <v>481</v>
       </c>
@@ -9195,13 +8595,6 @@
       <c r="R106" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="2" t="s">
@@ -9248,13 +8641,6 @@
       <c r="R107" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
-      <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2" t="s">
@@ -9301,13 +8687,6 @@
       <c r="R108" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
-      <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="2" t="s">
@@ -9354,13 +8733,6 @@
       <c r="R109" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" s="9"/>
@@ -9381,13 +8753,6 @@
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
-      <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
-      <c r="U110" s="9"/>
-      <c r="V110" s="9"/>
-      <c r="W110" s="9"/>
-      <c r="X110" s="9"/>
-      <c r="Y110" s="9"/>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="11" t="s">
@@ -9410,15 +8775,8 @@
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11"/>
-      <c r="U111" s="11"/>
-      <c r="V111" s="11"/>
-      <c r="W111" s="11"/>
-      <c r="X111" s="11"/>
-      <c r="Y111" s="11"/>
-    </row>
-    <row r="112" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="112" spans="1:25">
       <c r="A112" s="4" t="s">
         <v>29</v>
       </c>
@@ -9463,13 +8821,6 @@
       <c r="R112" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
-      <c r="X112" s="9"/>
-      <c r="Y112" s="9"/>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="2" t="s">
@@ -9516,15 +8867,8 @@
       <c r="R113" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
-      <c r="U113" s="9"/>
-      <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
-      <c r="X113" s="9"/>
-      <c r="Y113" s="9"/>
-    </row>
-    <row r="114" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="114" spans="1:25">
       <c r="A114" s="2" t="s">
         <v>502</v>
       </c>
@@ -9569,15 +8913,8 @@
       <c r="R114" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
-    </row>
-    <row r="115" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="115" spans="1:25">
       <c r="A115" s="2" t="s">
         <v>510</v>
       </c>
@@ -9622,13 +8959,6 @@
       <c r="R115" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9"/>
-      <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
-      <c r="X115" s="9"/>
-      <c r="Y115" s="9"/>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="2" t="s">
@@ -9675,13 +9005,6 @@
       <c r="R116" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
-      <c r="U116" s="9"/>
-      <c r="V116" s="9"/>
-      <c r="W116" s="9"/>
-      <c r="X116" s="9"/>
-      <c r="Y116" s="9"/>
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="2" t="s">
@@ -9728,13 +9051,6 @@
       <c r="R117" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="9"/>
-      <c r="Y117" s="9"/>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="2" t="s">
@@ -9781,13 +9097,6 @@
       <c r="R118" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="2" t="s">
@@ -9834,13 +9143,6 @@
       <c r="R119" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-      <c r="U119" s="9"/>
-      <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
-      <c r="X119" s="9"/>
-      <c r="Y119" s="9"/>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="2" t="s">
@@ -9887,13 +9189,6 @@
       <c r="R120" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
-      <c r="Y120" s="9"/>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="2" t="s">
@@ -9940,13 +9235,6 @@
       <c r="R121" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="9"/>
-      <c r="Y121" s="9"/>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="2" t="s">
@@ -9993,13 +9281,6 @@
       <c r="R122" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="9"/>
@@ -10020,13 +9301,6 @@
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="11" t="s">
@@ -10049,15 +9323,8 @@
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
       <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11"/>
-      <c r="U124" s="11"/>
-      <c r="V124" s="11"/>
-      <c r="W124" s="11"/>
-      <c r="X124" s="11"/>
-      <c r="Y124" s="11"/>
-    </row>
-    <row r="125" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="125" spans="1:25">
       <c r="A125" s="4" t="s">
         <v>29</v>
       </c>
@@ -10102,13 +9369,6 @@
       <c r="R125" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="2" t="s">
@@ -10155,13 +9415,6 @@
       <c r="R126" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-      <c r="U126" s="9"/>
-      <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="2" t="s">
@@ -10208,13 +9461,6 @@
       <c r="R127" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
-      <c r="U127" s="9"/>
-      <c r="V127" s="9"/>
-      <c r="W127" s="9"/>
-      <c r="X127" s="9"/>
-      <c r="Y127" s="9"/>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="2" t="s">
@@ -10261,13 +9507,6 @@
       <c r="R128" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="S128" s="9"/>
-      <c r="T128" s="9"/>
-      <c r="U128" s="9"/>
-      <c r="V128" s="9"/>
-      <c r="W128" s="9"/>
-      <c r="X128" s="9"/>
-      <c r="Y128" s="9"/>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="2" t="s">
@@ -10314,13 +9553,6 @@
       <c r="R129" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="9"/>
-      <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="2" t="s">
@@ -10367,13 +9599,6 @@
       <c r="R130" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
-      <c r="U130" s="9"/>
-      <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
-      <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="2" t="s">
@@ -10420,13 +9645,6 @@
       <c r="R131" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="2" t="s">
@@ -10473,13 +9691,6 @@
       <c r="R132" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="2" t="s">
@@ -10526,13 +9737,6 @@
       <c r="R133" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9"/>
-      <c r="V133" s="9"/>
-      <c r="W133" s="9"/>
-      <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="2" t="s">
@@ -10579,13 +9783,6 @@
       <c r="R134" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9"/>
-      <c r="V134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="2" t="s">
@@ -10632,13 +9829,6 @@
       <c r="R135" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S135" s="9"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="9"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="9"/>
-      <c r="X135" s="9"/>
-      <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="2" t="s">
@@ -10685,13 +9875,6 @@
       <c r="R136" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="9"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="2" t="s">
@@ -10738,13 +9921,6 @@
       <c r="R137" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9"/>
-      <c r="U137" s="9"/>
-      <c r="V137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="2" t="s">
@@ -10791,13 +9967,6 @@
       <c r="R138" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
-      <c r="U138" s="9"/>
-      <c r="V138" s="9"/>
-      <c r="W138" s="9"/>
-      <c r="X138" s="9"/>
-      <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="2" t="s">
@@ -10844,13 +10013,6 @@
       <c r="R139" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
-      <c r="U139" s="9"/>
-      <c r="V139" s="9"/>
-      <c r="W139" s="9"/>
-      <c r="X139" s="9"/>
-      <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="2" t="s">
@@ -10897,13 +10059,6 @@
       <c r="R140" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
-      <c r="U140" s="9"/>
-      <c r="V140" s="9"/>
-      <c r="W140" s="9"/>
-      <c r="X140" s="9"/>
-      <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="9"/>
@@ -10924,13 +10079,6 @@
       <c r="P141" s="9"/>
       <c r="Q141" s="9"/>
       <c r="R141" s="9"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
-      <c r="U141" s="9"/>
-      <c r="V141" s="9"/>
-      <c r="W141" s="9"/>
-      <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="9"/>
@@ -10953,13 +10101,6 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="14"/>
       <c r="R142" s="14"/>
-      <c r="S142" s="14"/>
-      <c r="T142" s="14"/>
-      <c r="U142" s="14"/>
-      <c r="V142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="X142" s="3"/>
-      <c r="Y142" s="3"/>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="11" t="s">
@@ -10982,15 +10123,8 @@
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
       <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11"/>
-      <c r="U143" s="11"/>
-      <c r="V143" s="11"/>
-      <c r="W143" s="11"/>
-      <c r="X143" s="11"/>
-      <c r="Y143" s="11"/>
-    </row>
-    <row r="144" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="144" spans="1:25">
       <c r="A144" s="4" t="s">
         <v>29</v>
       </c>
@@ -11035,13 +10169,6 @@
       <c r="R144" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S144" s="9"/>
-      <c r="T144" s="9"/>
-      <c r="U144" s="9"/>
-      <c r="V144" s="9"/>
-      <c r="W144" s="9"/>
-      <c r="X144" s="9"/>
-      <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25">
       <c r="A145" s="2" t="s">
@@ -11088,13 +10215,6 @@
       <c r="R145" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S145" s="9"/>
-      <c r="T145" s="9"/>
-      <c r="U145" s="9"/>
-      <c r="V145" s="9"/>
-      <c r="W145" s="9"/>
-      <c r="X145" s="9"/>
-      <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="2" t="s">
@@ -11141,13 +10261,6 @@
       <c r="R146" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
-      <c r="U146" s="9"/>
-      <c r="V146" s="9"/>
-      <c r="W146" s="9"/>
-      <c r="X146" s="9"/>
-      <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="2" t="s">
@@ -11194,13 +10307,6 @@
       <c r="R147" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S147" s="9"/>
-      <c r="T147" s="9"/>
-      <c r="U147" s="9"/>
-      <c r="V147" s="9"/>
-      <c r="W147" s="9"/>
-      <c r="X147" s="9"/>
-      <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="2" t="s">
@@ -11247,13 +10353,6 @@
       <c r="R148" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S148" s="9"/>
-      <c r="T148" s="9"/>
-      <c r="U148" s="9"/>
-      <c r="V148" s="9"/>
-      <c r="W148" s="9"/>
-      <c r="X148" s="9"/>
-      <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="2" t="s">
@@ -11300,13 +10399,6 @@
       <c r="R149" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S149" s="9"/>
-      <c r="T149" s="9"/>
-      <c r="U149" s="9"/>
-      <c r="V149" s="9"/>
-      <c r="W149" s="9"/>
-      <c r="X149" s="9"/>
-      <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="2" t="s">
@@ -11353,13 +10445,6 @@
       <c r="R150" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="S150" s="9"/>
-      <c r="T150" s="9"/>
-      <c r="U150" s="9"/>
-      <c r="V150" s="9"/>
-      <c r="W150" s="9"/>
-      <c r="X150" s="9"/>
-      <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="2" t="s">
@@ -11406,13 +10491,6 @@
       <c r="R151" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="S151" s="9"/>
-      <c r="T151" s="9"/>
-      <c r="U151" s="9"/>
-      <c r="V151" s="9"/>
-      <c r="W151" s="9"/>
-      <c r="X151" s="9"/>
-      <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="2" t="s">
@@ -11459,13 +10537,6 @@
       <c r="R152" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S152" s="9"/>
-      <c r="T152" s="9"/>
-      <c r="U152" s="9"/>
-      <c r="V152" s="9"/>
-      <c r="W152" s="9"/>
-      <c r="X152" s="9"/>
-      <c r="Y152" s="9"/>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="2" t="s">
@@ -11512,13 +10583,6 @@
       <c r="R153" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S153" s="9"/>
-      <c r="T153" s="9"/>
-      <c r="U153" s="9"/>
-      <c r="V153" s="9"/>
-      <c r="W153" s="9"/>
-      <c r="X153" s="9"/>
-      <c r="Y153" s="9"/>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="9"/>
@@ -11539,13 +10603,6 @@
       <c r="P154" s="9"/>
       <c r="Q154" s="9"/>
       <c r="R154" s="9"/>
-      <c r="S154" s="9"/>
-      <c r="T154" s="9"/>
-      <c r="U154" s="9"/>
-      <c r="V154" s="9"/>
-      <c r="W154" s="9"/>
-      <c r="X154" s="9"/>
-      <c r="Y154" s="9"/>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="11" t="s">
@@ -11568,15 +10625,8 @@
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
-      <c r="S155" s="11"/>
-      <c r="T155" s="11"/>
-      <c r="U155" s="11"/>
-      <c r="V155" s="11"/>
-      <c r="W155" s="11"/>
-      <c r="X155" s="11"/>
-      <c r="Y155" s="11"/>
-    </row>
-    <row r="156" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="156" spans="1:25">
       <c r="A156" s="4" t="s">
         <v>29</v>
       </c>
@@ -11621,13 +10671,6 @@
       <c r="R156" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S156" s="9"/>
-      <c r="T156" s="9"/>
-      <c r="U156" s="9"/>
-      <c r="V156" s="9"/>
-      <c r="W156" s="9"/>
-      <c r="X156" s="9"/>
-      <c r="Y156" s="9"/>
     </row>
     <row r="157" spans="1:25">
       <c r="A157" s="2" t="s">
@@ -11674,15 +10717,8 @@
       <c r="R157" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="S157" s="9"/>
-      <c r="T157" s="9"/>
-      <c r="U157" s="9"/>
-      <c r="V157" s="9"/>
-      <c r="W157" s="9"/>
-      <c r="X157" s="9"/>
-      <c r="Y157" s="9"/>
-    </row>
-    <row r="158" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="158" spans="1:25">
       <c r="A158" s="2" t="s">
         <v>653</v>
       </c>
@@ -11727,13 +10763,6 @@
       <c r="R158" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="S158" s="9"/>
-      <c r="T158" s="9"/>
-      <c r="U158" s="9"/>
-      <c r="V158" s="9"/>
-      <c r="W158" s="9"/>
-      <c r="X158" s="9"/>
-      <c r="Y158" s="9"/>
     </row>
     <row r="159" spans="1:25">
       <c r="A159" s="2" t="s">
@@ -11780,13 +10809,6 @@
       <c r="R159" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="S159" s="9"/>
-      <c r="T159" s="9"/>
-      <c r="U159" s="9"/>
-      <c r="V159" s="9"/>
-      <c r="W159" s="9"/>
-      <c r="X159" s="9"/>
-      <c r="Y159" s="9"/>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" s="2" t="s">
@@ -11833,13 +10855,6 @@
       <c r="R160" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="S160" s="9"/>
-      <c r="T160" s="9"/>
-      <c r="U160" s="9"/>
-      <c r="V160" s="9"/>
-      <c r="W160" s="9"/>
-      <c r="X160" s="9"/>
-      <c r="Y160" s="9"/>
     </row>
     <row r="161" spans="1:25">
       <c r="A161" s="2" t="s">
@@ -11886,13 +10901,6 @@
       <c r="R161" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="S161" s="9"/>
-      <c r="T161" s="9"/>
-      <c r="U161" s="9"/>
-      <c r="V161" s="9"/>
-      <c r="W161" s="9"/>
-      <c r="X161" s="9"/>
-      <c r="Y161" s="9"/>
     </row>
     <row r="162" spans="1:25">
       <c r="A162" s="2" t="s">
@@ -11939,13 +10947,6 @@
       <c r="R162" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="S162" s="9"/>
-      <c r="T162" s="9"/>
-      <c r="U162" s="9"/>
-      <c r="V162" s="9"/>
-      <c r="W162" s="9"/>
-      <c r="X162" s="9"/>
-      <c r="Y162" s="9"/>
     </row>
     <row r="163" spans="1:25">
       <c r="A163" s="2" t="s">
@@ -11992,13 +10993,6 @@
       <c r="R163" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="S163" s="9"/>
-      <c r="T163" s="9"/>
-      <c r="U163" s="9"/>
-      <c r="V163" s="9"/>
-      <c r="W163" s="9"/>
-      <c r="X163" s="9"/>
-      <c r="Y163" s="9"/>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="2" t="s">
@@ -12045,13 +11039,6 @@
       <c r="R164" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S164" s="9"/>
-      <c r="T164" s="9"/>
-      <c r="U164" s="9"/>
-      <c r="V164" s="9"/>
-      <c r="W164" s="9"/>
-      <c r="X164" s="9"/>
-      <c r="Y164" s="9"/>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="2" t="s">
@@ -12098,13 +11085,6 @@
       <c r="R165" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S165" s="9"/>
-      <c r="T165" s="9"/>
-      <c r="U165" s="9"/>
-      <c r="V165" s="9"/>
-      <c r="W165" s="9"/>
-      <c r="X165" s="9"/>
-      <c r="Y165" s="9"/>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="9"/>
@@ -12125,13 +11105,6 @@
       <c r="P166" s="9"/>
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
-      <c r="S166" s="9"/>
-      <c r="T166" s="9"/>
-      <c r="U166" s="9"/>
-      <c r="V166" s="9"/>
-      <c r="W166" s="9"/>
-      <c r="X166" s="9"/>
-      <c r="Y166" s="9"/>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="11" t="s">
@@ -12154,15 +11127,8 @@
       <c r="P167" s="11"/>
       <c r="Q167" s="11"/>
       <c r="R167" s="11"/>
-      <c r="S167" s="11"/>
-      <c r="T167" s="11"/>
-      <c r="U167" s="11"/>
-      <c r="V167" s="11"/>
-      <c r="W167" s="11"/>
-      <c r="X167" s="11"/>
-      <c r="Y167" s="11"/>
-    </row>
-    <row r="168" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="168" spans="1:25">
       <c r="A168" s="4" t="s">
         <v>29</v>
       </c>
@@ -12207,13 +11173,6 @@
       <c r="R168" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S168" s="9"/>
-      <c r="T168" s="9"/>
-      <c r="U168" s="9"/>
-      <c r="V168" s="9"/>
-      <c r="W168" s="9"/>
-      <c r="X168" s="9"/>
-      <c r="Y168" s="9"/>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="2" t="s">
@@ -12260,13 +11219,6 @@
       <c r="R169" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="S169" s="9"/>
-      <c r="T169" s="9"/>
-      <c r="U169" s="9"/>
-      <c r="V169" s="9"/>
-      <c r="W169" s="9"/>
-      <c r="X169" s="9"/>
-      <c r="Y169" s="9"/>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="2" t="s">
@@ -12313,13 +11265,6 @@
       <c r="R170" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="S170" s="9"/>
-      <c r="T170" s="9"/>
-      <c r="U170" s="9"/>
-      <c r="V170" s="9"/>
-      <c r="W170" s="9"/>
-      <c r="X170" s="9"/>
-      <c r="Y170" s="9"/>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="2" t="s">
@@ -12366,13 +11311,6 @@
       <c r="R171" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="S171" s="9"/>
-      <c r="T171" s="9"/>
-      <c r="U171" s="9"/>
-      <c r="V171" s="9"/>
-      <c r="W171" s="9"/>
-      <c r="X171" s="9"/>
-      <c r="Y171" s="9"/>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="2" t="s">
@@ -12419,13 +11357,6 @@
       <c r="R172" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="S172" s="9"/>
-      <c r="T172" s="9"/>
-      <c r="U172" s="9"/>
-      <c r="V172" s="9"/>
-      <c r="W172" s="9"/>
-      <c r="X172" s="9"/>
-      <c r="Y172" s="9"/>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="2" t="s">
@@ -12472,13 +11403,6 @@
       <c r="R173" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="S173" s="9"/>
-      <c r="T173" s="9"/>
-      <c r="U173" s="9"/>
-      <c r="V173" s="9"/>
-      <c r="W173" s="9"/>
-      <c r="X173" s="9"/>
-      <c r="Y173" s="9"/>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="2" t="s">
@@ -12525,13 +11449,6 @@
       <c r="R174" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="S174" s="9"/>
-      <c r="T174" s="9"/>
-      <c r="U174" s="9"/>
-      <c r="V174" s="9"/>
-      <c r="W174" s="9"/>
-      <c r="X174" s="9"/>
-      <c r="Y174" s="9"/>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="2" t="s">
@@ -12578,13 +11495,6 @@
       <c r="R175" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="S175" s="9"/>
-      <c r="T175" s="9"/>
-      <c r="U175" s="9"/>
-      <c r="V175" s="9"/>
-      <c r="W175" s="9"/>
-      <c r="X175" s="9"/>
-      <c r="Y175" s="9"/>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="2" t="s">
@@ -12631,15 +11541,8 @@
       <c r="R176" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="S176" s="9"/>
-      <c r="T176" s="9"/>
-      <c r="U176" s="9"/>
-      <c r="V176" s="9"/>
-      <c r="W176" s="9"/>
-      <c r="X176" s="9"/>
-      <c r="Y176" s="9"/>
-    </row>
-    <row r="177" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="177" spans="1:25">
       <c r="A177" s="2" t="s">
         <v>743</v>
       </c>
@@ -12684,13 +11587,6 @@
       <c r="R177" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="S177" s="9"/>
-      <c r="T177" s="9"/>
-      <c r="U177" s="9"/>
-      <c r="V177" s="9"/>
-      <c r="W177" s="9"/>
-      <c r="X177" s="9"/>
-      <c r="Y177" s="9"/>
     </row>
     <row r="178" spans="1:25">
       <c r="A178" s="2" t="s">
@@ -12737,13 +11633,6 @@
       <c r="R178" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S178" s="9"/>
-      <c r="T178" s="9"/>
-      <c r="U178" s="9"/>
-      <c r="V178" s="9"/>
-      <c r="W178" s="9"/>
-      <c r="X178" s="9"/>
-      <c r="Y178" s="9"/>
     </row>
     <row r="179" spans="1:25">
       <c r="A179" s="2" t="s">
@@ -12790,13 +11679,6 @@
       <c r="R179" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S179" s="9"/>
-      <c r="T179" s="9"/>
-      <c r="U179" s="9"/>
-      <c r="V179" s="9"/>
-      <c r="W179" s="9"/>
-      <c r="X179" s="9"/>
-      <c r="Y179" s="9"/>
     </row>
     <row r="180" spans="1:25">
       <c r="A180" s="9"/>
@@ -12817,13 +11699,6 @@
       <c r="P180" s="9"/>
       <c r="Q180" s="9"/>
       <c r="R180" s="9"/>
-      <c r="S180" s="9"/>
-      <c r="T180" s="9"/>
-      <c r="U180" s="9"/>
-      <c r="V180" s="9"/>
-      <c r="W180" s="9"/>
-      <c r="X180" s="9"/>
-      <c r="Y180" s="9"/>
     </row>
     <row r="181" spans="1:25">
       <c r="A181" s="9"/>
@@ -12846,13 +11721,6 @@
       <c r="P181" s="14"/>
       <c r="Q181" s="14"/>
       <c r="R181" s="14"/>
-      <c r="S181" s="14"/>
-      <c r="T181" s="14"/>
-      <c r="U181" s="14"/>
-      <c r="V181" s="9"/>
-      <c r="W181" s="9"/>
-      <c r="X181" s="3"/>
-      <c r="Y181" s="3"/>
     </row>
     <row r="182" spans="1:25">
       <c r="A182" s="11" t="s">
@@ -12875,15 +11743,8 @@
       <c r="P182" s="11"/>
       <c r="Q182" s="11"/>
       <c r="R182" s="11"/>
-      <c r="S182" s="11"/>
-      <c r="T182" s="11"/>
-      <c r="U182" s="11"/>
-      <c r="V182" s="11"/>
-      <c r="W182" s="11"/>
-      <c r="X182" s="11"/>
-      <c r="Y182" s="11"/>
-    </row>
-    <row r="183" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="183" spans="1:25">
       <c r="A183" s="4" t="s">
         <v>29</v>
       </c>
@@ -12928,13 +11789,6 @@
       <c r="R183" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S183" s="9"/>
-      <c r="T183" s="9"/>
-      <c r="U183" s="9"/>
-      <c r="V183" s="9"/>
-      <c r="W183" s="9"/>
-      <c r="X183" s="9"/>
-      <c r="Y183" s="9"/>
     </row>
     <row r="184" spans="1:25">
       <c r="A184" s="2" t="s">
@@ -12981,13 +11835,6 @@
       <c r="R184" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S184" s="9"/>
-      <c r="T184" s="9"/>
-      <c r="U184" s="9"/>
-      <c r="V184" s="9"/>
-      <c r="W184" s="9"/>
-      <c r="X184" s="9"/>
-      <c r="Y184" s="9"/>
     </row>
     <row r="185" spans="1:25">
       <c r="A185" s="2" t="s">
@@ -13034,13 +11881,6 @@
       <c r="R185" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S185" s="9"/>
-      <c r="T185" s="9"/>
-      <c r="U185" s="9"/>
-      <c r="V185" s="9"/>
-      <c r="W185" s="9"/>
-      <c r="X185" s="9"/>
-      <c r="Y185" s="9"/>
     </row>
     <row r="186" spans="1:25">
       <c r="A186" s="2" t="s">
@@ -13087,13 +11927,6 @@
       <c r="R186" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="S186" s="9"/>
-      <c r="T186" s="9"/>
-      <c r="U186" s="9"/>
-      <c r="V186" s="9"/>
-      <c r="W186" s="9"/>
-      <c r="X186" s="9"/>
-      <c r="Y186" s="9"/>
     </row>
     <row r="187" spans="1:25">
       <c r="A187" s="2" t="s">
@@ -13140,13 +11973,6 @@
       <c r="R187" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="S187" s="9"/>
-      <c r="T187" s="9"/>
-      <c r="U187" s="9"/>
-      <c r="V187" s="9"/>
-      <c r="W187" s="9"/>
-      <c r="X187" s="9"/>
-      <c r="Y187" s="9"/>
     </row>
     <row r="188" spans="1:25">
       <c r="A188" s="2" t="s">
@@ -13193,13 +12019,6 @@
       <c r="R188" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S188" s="9"/>
-      <c r="T188" s="9"/>
-      <c r="U188" s="9"/>
-      <c r="V188" s="9"/>
-      <c r="W188" s="9"/>
-      <c r="X188" s="9"/>
-      <c r="Y188" s="9"/>
     </row>
     <row r="189" spans="1:25">
       <c r="A189" s="2" t="s">
@@ -13246,13 +12065,6 @@
       <c r="R189" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="S189" s="9"/>
-      <c r="T189" s="9"/>
-      <c r="U189" s="9"/>
-      <c r="V189" s="9"/>
-      <c r="W189" s="9"/>
-      <c r="X189" s="9"/>
-      <c r="Y189" s="9"/>
     </row>
     <row r="190" spans="1:25">
       <c r="A190" s="2" t="s">
@@ -13299,13 +12111,6 @@
       <c r="R190" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S190" s="9"/>
-      <c r="T190" s="9"/>
-      <c r="U190" s="9"/>
-      <c r="V190" s="9"/>
-      <c r="W190" s="9"/>
-      <c r="X190" s="9"/>
-      <c r="Y190" s="9"/>
     </row>
     <row r="191" spans="1:25">
       <c r="A191" s="2" t="s">
@@ -13352,13 +12157,6 @@
       <c r="R191" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S191" s="9"/>
-      <c r="T191" s="9"/>
-      <c r="U191" s="9"/>
-      <c r="V191" s="9"/>
-      <c r="W191" s="9"/>
-      <c r="X191" s="9"/>
-      <c r="Y191" s="9"/>
     </row>
     <row r="192" spans="1:25">
       <c r="A192" s="2" t="s">
@@ -13405,13 +12203,6 @@
       <c r="R192" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S192" s="9"/>
-      <c r="T192" s="9"/>
-      <c r="U192" s="9"/>
-      <c r="V192" s="9"/>
-      <c r="W192" s="9"/>
-      <c r="X192" s="9"/>
-      <c r="Y192" s="9"/>
     </row>
     <row r="193" spans="1:25">
       <c r="A193" s="9"/>
@@ -13432,13 +12223,6 @@
       <c r="P193" s="9"/>
       <c r="Q193" s="9"/>
       <c r="R193" s="9"/>
-      <c r="S193" s="9"/>
-      <c r="T193" s="9"/>
-      <c r="U193" s="9"/>
-      <c r="V193" s="9"/>
-      <c r="W193" s="9"/>
-      <c r="X193" s="9"/>
-      <c r="Y193" s="9"/>
     </row>
     <row r="194" spans="1:25">
       <c r="A194" s="11" t="s">
@@ -13461,15 +12245,8 @@
       <c r="P194" s="11"/>
       <c r="Q194" s="11"/>
       <c r="R194" s="11"/>
-      <c r="S194" s="11"/>
-      <c r="T194" s="11"/>
-      <c r="U194" s="11"/>
-      <c r="V194" s="11"/>
-      <c r="W194" s="11"/>
-      <c r="X194" s="11"/>
-      <c r="Y194" s="11"/>
-    </row>
-    <row r="195" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="195" spans="1:25">
       <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
@@ -13514,13 +12291,6 @@
       <c r="R195" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S195" s="9"/>
-      <c r="T195" s="9"/>
-      <c r="U195" s="9"/>
-      <c r="V195" s="9"/>
-      <c r="W195" s="9"/>
-      <c r="X195" s="9"/>
-      <c r="Y195" s="9"/>
     </row>
     <row r="196" spans="1:25">
       <c r="A196" s="2" t="s">
@@ -13567,13 +12337,6 @@
       <c r="R196" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="S196" s="9"/>
-      <c r="T196" s="9"/>
-      <c r="U196" s="9"/>
-      <c r="V196" s="9"/>
-      <c r="W196" s="9"/>
-      <c r="X196" s="9"/>
-      <c r="Y196" s="9"/>
     </row>
     <row r="197" spans="1:25">
       <c r="A197" s="2" t="s">
@@ -13620,13 +12383,6 @@
       <c r="R197" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="S197" s="9"/>
-      <c r="T197" s="9"/>
-      <c r="U197" s="9"/>
-      <c r="V197" s="9"/>
-      <c r="W197" s="9"/>
-      <c r="X197" s="9"/>
-      <c r="Y197" s="9"/>
     </row>
     <row r="198" spans="1:25">
       <c r="A198" s="2" t="s">
@@ -13673,13 +12429,6 @@
       <c r="R198" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="S198" s="9"/>
-      <c r="T198" s="9"/>
-      <c r="U198" s="9"/>
-      <c r="V198" s="9"/>
-      <c r="W198" s="9"/>
-      <c r="X198" s="9"/>
-      <c r="Y198" s="9"/>
     </row>
     <row r="199" spans="1:25">
       <c r="A199" s="2" t="s">
@@ -13726,15 +12475,8 @@
       <c r="R199" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S199" s="9"/>
-      <c r="T199" s="9"/>
-      <c r="U199" s="9"/>
-      <c r="V199" s="9"/>
-      <c r="W199" s="9"/>
-      <c r="X199" s="9"/>
-      <c r="Y199" s="9"/>
-    </row>
-    <row r="200" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="200" spans="1:25">
       <c r="A200" s="2" t="s">
         <v>791</v>
       </c>
@@ -13779,13 +12521,6 @@
       <c r="R200" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="S200" s="9"/>
-      <c r="T200" s="9"/>
-      <c r="U200" s="9"/>
-      <c r="V200" s="9"/>
-      <c r="W200" s="9"/>
-      <c r="X200" s="9"/>
-      <c r="Y200" s="9"/>
     </row>
     <row r="201" spans="1:25">
       <c r="A201" s="2" t="s">
@@ -13832,13 +12567,6 @@
       <c r="R201" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="S201" s="9"/>
-      <c r="T201" s="9"/>
-      <c r="U201" s="9"/>
-      <c r="V201" s="9"/>
-      <c r="W201" s="9"/>
-      <c r="X201" s="9"/>
-      <c r="Y201" s="9"/>
     </row>
     <row r="202" spans="1:25">
       <c r="A202" s="2" t="s">
@@ -13885,13 +12613,6 @@
       <c r="R202" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S202" s="9"/>
-      <c r="T202" s="9"/>
-      <c r="U202" s="9"/>
-      <c r="V202" s="9"/>
-      <c r="W202" s="9"/>
-      <c r="X202" s="9"/>
-      <c r="Y202" s="9"/>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="2" t="s">
@@ -13938,13 +12659,6 @@
       <c r="R203" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S203" s="9"/>
-      <c r="T203" s="9"/>
-      <c r="U203" s="9"/>
-      <c r="V203" s="9"/>
-      <c r="W203" s="9"/>
-      <c r="X203" s="9"/>
-      <c r="Y203" s="9"/>
     </row>
     <row r="204" spans="1:25">
       <c r="A204" s="2" t="s">
@@ -13991,13 +12705,6 @@
       <c r="R204" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S204" s="9"/>
-      <c r="T204" s="9"/>
-      <c r="U204" s="9"/>
-      <c r="V204" s="9"/>
-      <c r="W204" s="9"/>
-      <c r="X204" s="9"/>
-      <c r="Y204" s="9"/>
     </row>
     <row r="205" spans="1:25">
       <c r="A205" s="9"/>
@@ -14018,13 +12725,6 @@
       <c r="P205" s="9"/>
       <c r="Q205" s="9"/>
       <c r="R205" s="9"/>
-      <c r="S205" s="9"/>
-      <c r="T205" s="9"/>
-      <c r="U205" s="9"/>
-      <c r="V205" s="9"/>
-      <c r="W205" s="9"/>
-      <c r="X205" s="9"/>
-      <c r="Y205" s="9"/>
     </row>
     <row r="206" spans="1:25">
       <c r="A206" s="11" t="s">
@@ -14047,15 +12747,8 @@
       <c r="P206" s="11"/>
       <c r="Q206" s="11"/>
       <c r="R206" s="11"/>
-      <c r="S206" s="11"/>
-      <c r="T206" s="11"/>
-      <c r="U206" s="11"/>
-      <c r="V206" s="11"/>
-      <c r="W206" s="11"/>
-      <c r="X206" s="11"/>
-      <c r="Y206" s="11"/>
-    </row>
-    <row r="207" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="207" spans="1:25">
       <c r="A207" s="4" t="s">
         <v>29</v>
       </c>
@@ -14100,13 +12793,6 @@
       <c r="R207" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S207" s="9"/>
-      <c r="T207" s="9"/>
-      <c r="U207" s="9"/>
-      <c r="V207" s="9"/>
-      <c r="W207" s="9"/>
-      <c r="X207" s="9"/>
-      <c r="Y207" s="9"/>
     </row>
     <row r="208" spans="1:25">
       <c r="A208" s="2" t="s">
@@ -14153,13 +12839,6 @@
       <c r="R208" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="S208" s="9"/>
-      <c r="T208" s="9"/>
-      <c r="U208" s="9"/>
-      <c r="V208" s="9"/>
-      <c r="W208" s="9"/>
-      <c r="X208" s="9"/>
-      <c r="Y208" s="9"/>
     </row>
     <row r="209" spans="1:25">
       <c r="A209" s="2" t="s">
@@ -14206,15 +12885,8 @@
       <c r="R209" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="S209" s="9"/>
-      <c r="T209" s="9"/>
-      <c r="U209" s="9"/>
-      <c r="V209" s="9"/>
-      <c r="W209" s="9"/>
-      <c r="X209" s="9"/>
-      <c r="Y209" s="9"/>
-    </row>
-    <row r="210" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="210" spans="1:25">
       <c r="A210" s="2" t="s">
         <v>816</v>
       </c>
@@ -14259,13 +12931,6 @@
       <c r="R210" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="S210" s="9"/>
-      <c r="T210" s="9"/>
-      <c r="U210" s="9"/>
-      <c r="V210" s="9"/>
-      <c r="W210" s="9"/>
-      <c r="X210" s="9"/>
-      <c r="Y210" s="9"/>
     </row>
     <row r="211" spans="1:25">
       <c r="A211" s="2" t="s">
@@ -14312,13 +12977,6 @@
       <c r="R211" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="S211" s="9"/>
-      <c r="T211" s="9"/>
-      <c r="U211" s="9"/>
-      <c r="V211" s="9"/>
-      <c r="W211" s="9"/>
-      <c r="X211" s="9"/>
-      <c r="Y211" s="9"/>
     </row>
     <row r="212" spans="1:25">
       <c r="A212" s="2" t="s">
@@ -14365,13 +13023,6 @@
       <c r="R212" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="S212" s="9"/>
-      <c r="T212" s="9"/>
-      <c r="U212" s="9"/>
-      <c r="V212" s="9"/>
-      <c r="W212" s="9"/>
-      <c r="X212" s="9"/>
-      <c r="Y212" s="9"/>
     </row>
     <row r="213" spans="1:25">
       <c r="A213" s="2" t="s">
@@ -14418,13 +13069,6 @@
       <c r="R213" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="S213" s="9"/>
-      <c r="T213" s="9"/>
-      <c r="U213" s="9"/>
-      <c r="V213" s="9"/>
-      <c r="W213" s="9"/>
-      <c r="X213" s="9"/>
-      <c r="Y213" s="9"/>
     </row>
     <row r="214" spans="1:25">
       <c r="A214" s="2" t="s">
@@ -14471,13 +13115,6 @@
       <c r="R214" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="S214" s="9"/>
-      <c r="T214" s="9"/>
-      <c r="U214" s="9"/>
-      <c r="V214" s="9"/>
-      <c r="W214" s="9"/>
-      <c r="X214" s="9"/>
-      <c r="Y214" s="9"/>
     </row>
     <row r="215" spans="1:25">
       <c r="A215" s="2" t="s">
@@ -14524,13 +13161,6 @@
       <c r="R215" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="S215" s="9"/>
-      <c r="T215" s="9"/>
-      <c r="U215" s="9"/>
-      <c r="V215" s="9"/>
-      <c r="W215" s="9"/>
-      <c r="X215" s="9"/>
-      <c r="Y215" s="9"/>
     </row>
     <row r="216" spans="1:25">
       <c r="A216" s="2" t="s">
@@ -14577,15 +13207,8 @@
       <c r="R216" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="S216" s="9"/>
-      <c r="T216" s="9"/>
-      <c r="U216" s="9"/>
-      <c r="V216" s="9"/>
-      <c r="W216" s="9"/>
-      <c r="X216" s="9"/>
-      <c r="Y216" s="9"/>
-    </row>
-    <row r="217" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="217" spans="1:25">
       <c r="A217" s="2" t="s">
         <v>857</v>
       </c>
@@ -14630,13 +13253,6 @@
       <c r="R217" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="S217" s="9"/>
-      <c r="T217" s="9"/>
-      <c r="U217" s="9"/>
-      <c r="V217" s="9"/>
-      <c r="W217" s="9"/>
-      <c r="X217" s="9"/>
-      <c r="Y217" s="9"/>
     </row>
     <row r="218" spans="1:25">
       <c r="A218" s="2" t="s">
@@ -14683,13 +13299,6 @@
       <c r="R218" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S218" s="9"/>
-      <c r="T218" s="9"/>
-      <c r="U218" s="9"/>
-      <c r="V218" s="9"/>
-      <c r="W218" s="9"/>
-      <c r="X218" s="9"/>
-      <c r="Y218" s="9"/>
     </row>
     <row r="219" spans="1:25">
       <c r="A219" s="2" t="s">
@@ -14736,13 +13345,6 @@
       <c r="R219" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S219" s="9"/>
-      <c r="T219" s="9"/>
-      <c r="U219" s="9"/>
-      <c r="V219" s="9"/>
-      <c r="W219" s="9"/>
-      <c r="X219" s="9"/>
-      <c r="Y219" s="9"/>
     </row>
     <row r="220" spans="1:25">
       <c r="A220" s="9"/>
@@ -14763,13 +13365,6 @@
       <c r="P220" s="9"/>
       <c r="Q220" s="9"/>
       <c r="R220" s="9"/>
-      <c r="S220" s="9"/>
-      <c r="T220" s="9"/>
-      <c r="U220" s="9"/>
-      <c r="V220" s="9"/>
-      <c r="W220" s="9"/>
-      <c r="X220" s="9"/>
-      <c r="Y220" s="9"/>
     </row>
     <row r="221" spans="1:25">
       <c r="A221" s="9"/>
@@ -14792,13 +13387,6 @@
       <c r="P221" s="14"/>
       <c r="Q221" s="14"/>
       <c r="R221" s="14"/>
-      <c r="S221" s="14"/>
-      <c r="T221" s="14"/>
-      <c r="U221" s="14"/>
-      <c r="V221" s="9"/>
-      <c r="W221" s="9"/>
-      <c r="X221" s="3"/>
-      <c r="Y221" s="3"/>
     </row>
     <row r="222" spans="1:25">
       <c r="A222" s="11" t="s">
@@ -14821,15 +13409,8 @@
       <c r="P222" s="11"/>
       <c r="Q222" s="11"/>
       <c r="R222" s="11"/>
-      <c r="S222" s="11"/>
-      <c r="T222" s="11"/>
-      <c r="U222" s="11"/>
-      <c r="V222" s="11"/>
-      <c r="W222" s="11"/>
-      <c r="X222" s="11"/>
-      <c r="Y222" s="11"/>
-    </row>
-    <row r="223" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="223" spans="1:25">
       <c r="A223" s="4" t="s">
         <v>29</v>
       </c>
@@ -14874,13 +13455,6 @@
       <c r="R223" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S223" s="9"/>
-      <c r="T223" s="9"/>
-      <c r="U223" s="9"/>
-      <c r="V223" s="9"/>
-      <c r="W223" s="9"/>
-      <c r="X223" s="9"/>
-      <c r="Y223" s="9"/>
     </row>
     <row r="224" spans="1:25">
       <c r="A224" s="2" t="s">
@@ -14927,13 +13501,6 @@
       <c r="R224" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S224" s="9"/>
-      <c r="T224" s="9"/>
-      <c r="U224" s="9"/>
-      <c r="V224" s="9"/>
-      <c r="W224" s="9"/>
-      <c r="X224" s="9"/>
-      <c r="Y224" s="9"/>
     </row>
     <row r="225" spans="1:25">
       <c r="A225" s="2" t="s">
@@ -14980,13 +13547,6 @@
       <c r="R225" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S225" s="9"/>
-      <c r="T225" s="9"/>
-      <c r="U225" s="9"/>
-      <c r="V225" s="9"/>
-      <c r="W225" s="9"/>
-      <c r="X225" s="9"/>
-      <c r="Y225" s="9"/>
     </row>
     <row r="226" spans="1:25">
       <c r="A226" s="2" t="s">
@@ -15033,15 +13593,8 @@
       <c r="R226" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S226" s="9"/>
-      <c r="T226" s="9"/>
-      <c r="U226" s="9"/>
-      <c r="V226" s="9"/>
-      <c r="W226" s="9"/>
-      <c r="X226" s="9"/>
-      <c r="Y226" s="9"/>
-    </row>
-    <row r="227" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="227" spans="1:25">
       <c r="A227" s="2" t="s">
         <v>869</v>
       </c>
@@ -15086,13 +13639,6 @@
       <c r="R227" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="S227" s="9"/>
-      <c r="T227" s="9"/>
-      <c r="U227" s="9"/>
-      <c r="V227" s="9"/>
-      <c r="W227" s="9"/>
-      <c r="X227" s="9"/>
-      <c r="Y227" s="9"/>
     </row>
     <row r="228" spans="1:25">
       <c r="A228" s="2" t="s">
@@ -15139,13 +13685,6 @@
       <c r="R228" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S228" s="9"/>
-      <c r="T228" s="9"/>
-      <c r="U228" s="9"/>
-      <c r="V228" s="9"/>
-      <c r="W228" s="9"/>
-      <c r="X228" s="9"/>
-      <c r="Y228" s="9"/>
     </row>
     <row r="229" spans="1:25">
       <c r="A229" s="2" t="s">
@@ -15192,13 +13731,6 @@
       <c r="R229" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="S229" s="9"/>
-      <c r="T229" s="9"/>
-      <c r="U229" s="9"/>
-      <c r="V229" s="9"/>
-      <c r="W229" s="9"/>
-      <c r="X229" s="9"/>
-      <c r="Y229" s="9"/>
     </row>
     <row r="230" spans="1:25">
       <c r="A230" s="2" t="s">
@@ -15245,13 +13777,6 @@
       <c r="R230" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S230" s="9"/>
-      <c r="T230" s="9"/>
-      <c r="U230" s="9"/>
-      <c r="V230" s="9"/>
-      <c r="W230" s="9"/>
-      <c r="X230" s="9"/>
-      <c r="Y230" s="9"/>
     </row>
     <row r="231" spans="1:25">
       <c r="A231" s="2" t="s">
@@ -15298,13 +13823,6 @@
       <c r="R231" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S231" s="9"/>
-      <c r="T231" s="9"/>
-      <c r="U231" s="9"/>
-      <c r="V231" s="9"/>
-      <c r="W231" s="9"/>
-      <c r="X231" s="9"/>
-      <c r="Y231" s="9"/>
     </row>
     <row r="232" spans="1:25">
       <c r="A232" s="2" t="s">
@@ -15351,13 +13869,6 @@
       <c r="R232" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S232" s="9"/>
-      <c r="T232" s="9"/>
-      <c r="U232" s="9"/>
-      <c r="V232" s="9"/>
-      <c r="W232" s="9"/>
-      <c r="X232" s="9"/>
-      <c r="Y232" s="9"/>
     </row>
     <row r="233" spans="1:25">
       <c r="A233" s="9"/>
@@ -15378,13 +13889,6 @@
       <c r="P233" s="9"/>
       <c r="Q233" s="9"/>
       <c r="R233" s="9"/>
-      <c r="S233" s="9"/>
-      <c r="T233" s="9"/>
-      <c r="U233" s="9"/>
-      <c r="V233" s="9"/>
-      <c r="W233" s="9"/>
-      <c r="X233" s="9"/>
-      <c r="Y233" s="9"/>
     </row>
     <row r="234" spans="1:25">
       <c r="A234" s="11" t="s">
@@ -15407,15 +13911,8 @@
       <c r="P234" s="11"/>
       <c r="Q234" s="11"/>
       <c r="R234" s="11"/>
-      <c r="S234" s="11"/>
-      <c r="T234" s="11"/>
-      <c r="U234" s="11"/>
-      <c r="V234" s="11"/>
-      <c r="W234" s="11"/>
-      <c r="X234" s="11"/>
-      <c r="Y234" s="11"/>
-    </row>
-    <row r="235" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="235" spans="1:25">
       <c r="A235" s="4" t="s">
         <v>29</v>
       </c>
@@ -15460,13 +13957,6 @@
       <c r="R235" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S235" s="9"/>
-      <c r="T235" s="9"/>
-      <c r="U235" s="9"/>
-      <c r="V235" s="9"/>
-      <c r="W235" s="9"/>
-      <c r="X235" s="9"/>
-      <c r="Y235" s="9"/>
     </row>
     <row r="236" spans="1:25">
       <c r="A236" s="2" t="s">
@@ -15513,15 +14003,8 @@
       <c r="R236" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="S236" s="9"/>
-      <c r="T236" s="9"/>
-      <c r="U236" s="9"/>
-      <c r="V236" s="9"/>
-      <c r="W236" s="9"/>
-      <c r="X236" s="9"/>
-      <c r="Y236" s="9"/>
-    </row>
-    <row r="237" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="237" spans="1:25">
       <c r="A237" s="2" t="s">
         <v>884</v>
       </c>
@@ -15566,15 +14049,8 @@
       <c r="R237" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="S237" s="9"/>
-      <c r="T237" s="9"/>
-      <c r="U237" s="9"/>
-      <c r="V237" s="9"/>
-      <c r="W237" s="9"/>
-      <c r="X237" s="9"/>
-      <c r="Y237" s="9"/>
-    </row>
-    <row r="238" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="238" spans="1:25">
       <c r="A238" s="2" t="s">
         <v>893</v>
       </c>
@@ -15619,13 +14095,6 @@
       <c r="R238" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="S238" s="9"/>
-      <c r="T238" s="9"/>
-      <c r="U238" s="9"/>
-      <c r="V238" s="9"/>
-      <c r="W238" s="9"/>
-      <c r="X238" s="9"/>
-      <c r="Y238" s="9"/>
     </row>
     <row r="239" spans="1:25">
       <c r="A239" s="2" t="s">
@@ -15672,13 +14141,6 @@
       <c r="R239" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="S239" s="9"/>
-      <c r="T239" s="9"/>
-      <c r="U239" s="9"/>
-      <c r="V239" s="9"/>
-      <c r="W239" s="9"/>
-      <c r="X239" s="9"/>
-      <c r="Y239" s="9"/>
     </row>
     <row r="240" spans="1:25">
       <c r="A240" s="2" t="s">
@@ -15725,15 +14187,8 @@
       <c r="R240" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S240" s="9"/>
-      <c r="T240" s="9"/>
-      <c r="U240" s="9"/>
-      <c r="V240" s="9"/>
-      <c r="W240" s="9"/>
-      <c r="X240" s="9"/>
-      <c r="Y240" s="9"/>
-    </row>
-    <row r="241" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="241" spans="1:25">
       <c r="A241" s="2" t="s">
         <v>908</v>
       </c>
@@ -15778,13 +14233,6 @@
       <c r="R241" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="S241" s="9"/>
-      <c r="T241" s="9"/>
-      <c r="U241" s="9"/>
-      <c r="V241" s="9"/>
-      <c r="W241" s="9"/>
-      <c r="X241" s="9"/>
-      <c r="Y241" s="9"/>
     </row>
     <row r="242" spans="1:25">
       <c r="A242" s="2" t="s">
@@ -15831,13 +14279,6 @@
       <c r="R242" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S242" s="9"/>
-      <c r="T242" s="9"/>
-      <c r="U242" s="9"/>
-      <c r="V242" s="9"/>
-      <c r="W242" s="9"/>
-      <c r="X242" s="9"/>
-      <c r="Y242" s="9"/>
     </row>
     <row r="243" spans="1:25">
       <c r="A243" s="2" t="s">
@@ -15884,13 +14325,6 @@
       <c r="R243" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S243" s="9"/>
-      <c r="T243" s="9"/>
-      <c r="U243" s="9"/>
-      <c r="V243" s="9"/>
-      <c r="W243" s="9"/>
-      <c r="X243" s="9"/>
-      <c r="Y243" s="9"/>
     </row>
     <row r="244" spans="1:25">
       <c r="A244" s="2" t="s">
@@ -15937,13 +14371,6 @@
       <c r="R244" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="S244" s="9"/>
-      <c r="T244" s="9"/>
-      <c r="U244" s="9"/>
-      <c r="V244" s="9"/>
-      <c r="W244" s="9"/>
-      <c r="X244" s="9"/>
-      <c r="Y244" s="9"/>
     </row>
     <row r="245" spans="1:25">
       <c r="A245" s="2" t="s">
@@ -15990,13 +14417,6 @@
       <c r="R245" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="S245" s="9"/>
-      <c r="T245" s="9"/>
-      <c r="U245" s="9"/>
-      <c r="V245" s="9"/>
-      <c r="W245" s="9"/>
-      <c r="X245" s="9"/>
-      <c r="Y245" s="9"/>
     </row>
     <row r="246" spans="1:25">
       <c r="A246" s="9"/>
@@ -16017,13 +14437,6 @@
       <c r="P246" s="9"/>
       <c r="Q246" s="9"/>
       <c r="R246" s="9"/>
-      <c r="S246" s="9"/>
-      <c r="T246" s="9"/>
-      <c r="U246" s="9"/>
-      <c r="V246" s="9"/>
-      <c r="W246" s="9"/>
-      <c r="X246" s="9"/>
-      <c r="Y246" s="9"/>
     </row>
     <row r="247" spans="1:25">
       <c r="A247" s="11" t="s">
@@ -16046,15 +14459,8 @@
       <c r="P247" s="11"/>
       <c r="Q247" s="11"/>
       <c r="R247" s="11"/>
-      <c r="S247" s="11"/>
-      <c r="T247" s="11"/>
-      <c r="U247" s="11"/>
-      <c r="V247" s="11"/>
-      <c r="W247" s="11"/>
-      <c r="X247" s="11"/>
-      <c r="Y247" s="11"/>
-    </row>
-    <row r="248" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="248" spans="1:25">
       <c r="A248" s="4" t="s">
         <v>29</v>
       </c>
@@ -16099,13 +14505,6 @@
       <c r="R248" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S248" s="9"/>
-      <c r="T248" s="9"/>
-      <c r="U248" s="9"/>
-      <c r="V248" s="9"/>
-      <c r="W248" s="9"/>
-      <c r="X248" s="9"/>
-      <c r="Y248" s="9"/>
     </row>
     <row r="249" spans="1:25">
       <c r="A249" s="2" t="s">
@@ -16152,13 +14551,6 @@
       <c r="R249" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="S249" s="9"/>
-      <c r="T249" s="9"/>
-      <c r="U249" s="9"/>
-      <c r="V249" s="9"/>
-      <c r="W249" s="9"/>
-      <c r="X249" s="9"/>
-      <c r="Y249" s="9"/>
     </row>
     <row r="250" spans="1:25">
       <c r="A250" s="2" t="s">
@@ -16205,13 +14597,6 @@
       <c r="R250" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="S250" s="9"/>
-      <c r="T250" s="9"/>
-      <c r="U250" s="9"/>
-      <c r="V250" s="9"/>
-      <c r="W250" s="9"/>
-      <c r="X250" s="9"/>
-      <c r="Y250" s="9"/>
     </row>
     <row r="251" spans="1:25">
       <c r="A251" s="2" t="s">
@@ -16258,13 +14643,6 @@
       <c r="R251" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="S251" s="9"/>
-      <c r="T251" s="9"/>
-      <c r="U251" s="9"/>
-      <c r="V251" s="9"/>
-      <c r="W251" s="9"/>
-      <c r="X251" s="9"/>
-      <c r="Y251" s="9"/>
     </row>
     <row r="252" spans="1:25">
       <c r="A252" s="2" t="s">
@@ -16311,13 +14689,6 @@
       <c r="R252" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="S252" s="9"/>
-      <c r="T252" s="9"/>
-      <c r="U252" s="9"/>
-      <c r="V252" s="9"/>
-      <c r="W252" s="9"/>
-      <c r="X252" s="9"/>
-      <c r="Y252" s="9"/>
     </row>
     <row r="253" spans="1:25">
       <c r="A253" s="2" t="s">
@@ -16364,13 +14735,6 @@
       <c r="R253" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="S253" s="9"/>
-      <c r="T253" s="9"/>
-      <c r="U253" s="9"/>
-      <c r="V253" s="9"/>
-      <c r="W253" s="9"/>
-      <c r="X253" s="9"/>
-      <c r="Y253" s="9"/>
     </row>
     <row r="254" spans="1:25">
       <c r="A254" s="2" t="s">
@@ -16417,13 +14781,6 @@
       <c r="R254" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="S254" s="9"/>
-      <c r="T254" s="9"/>
-      <c r="U254" s="9"/>
-      <c r="V254" s="9"/>
-      <c r="W254" s="9"/>
-      <c r="X254" s="9"/>
-      <c r="Y254" s="9"/>
     </row>
     <row r="255" spans="1:25">
       <c r="A255" s="2" t="s">
@@ -16470,13 +14827,6 @@
       <c r="R255" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S255" s="9"/>
-      <c r="T255" s="9"/>
-      <c r="U255" s="9"/>
-      <c r="V255" s="9"/>
-      <c r="W255" s="9"/>
-      <c r="X255" s="9"/>
-      <c r="Y255" s="9"/>
     </row>
     <row r="256" spans="1:25">
       <c r="A256" s="2" t="s">
@@ -16523,13 +14873,6 @@
       <c r="R256" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="S256" s="9"/>
-      <c r="T256" s="9"/>
-      <c r="U256" s="9"/>
-      <c r="V256" s="9"/>
-      <c r="W256" s="9"/>
-      <c r="X256" s="9"/>
-      <c r="Y256" s="9"/>
     </row>
     <row r="257" spans="1:25">
       <c r="A257" s="2" t="s">
@@ -16576,13 +14919,6 @@
       <c r="R257" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="S257" s="9"/>
-      <c r="T257" s="9"/>
-      <c r="U257" s="9"/>
-      <c r="V257" s="9"/>
-      <c r="W257" s="9"/>
-      <c r="X257" s="9"/>
-      <c r="Y257" s="9"/>
     </row>
     <row r="258" spans="1:25">
       <c r="A258" s="2" t="s">
@@ -16629,13 +14965,6 @@
       <c r="R258" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="S258" s="9"/>
-      <c r="T258" s="9"/>
-      <c r="U258" s="9"/>
-      <c r="V258" s="9"/>
-      <c r="W258" s="9"/>
-      <c r="X258" s="9"/>
-      <c r="Y258" s="9"/>
     </row>
     <row r="259" spans="1:25">
       <c r="A259" s="2" t="s">
@@ -16682,15 +15011,8 @@
       <c r="R259" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="S259" s="9"/>
-      <c r="T259" s="9"/>
-      <c r="U259" s="9"/>
-      <c r="V259" s="9"/>
-      <c r="W259" s="9"/>
-      <c r="X259" s="9"/>
-      <c r="Y259" s="9"/>
-    </row>
-    <row r="260" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="260" spans="1:25">
       <c r="A260" s="2" t="s">
         <v>982</v>
       </c>
@@ -16735,13 +15057,6 @@
       <c r="R260" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="S260" s="9"/>
-      <c r="T260" s="9"/>
-      <c r="U260" s="9"/>
-      <c r="V260" s="9"/>
-      <c r="W260" s="9"/>
-      <c r="X260" s="9"/>
-      <c r="Y260" s="9"/>
     </row>
     <row r="261" spans="1:25">
       <c r="A261" s="2" t="s">
@@ -16788,13 +15103,6 @@
       <c r="R261" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S261" s="9"/>
-      <c r="T261" s="9"/>
-      <c r="U261" s="9"/>
-      <c r="V261" s="9"/>
-      <c r="W261" s="9"/>
-      <c r="X261" s="9"/>
-      <c r="Y261" s="9"/>
     </row>
     <row r="262" spans="1:25">
       <c r="A262" s="2" t="s">
@@ -16841,13 +15149,6 @@
       <c r="R262" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S262" s="9"/>
-      <c r="T262" s="9"/>
-      <c r="U262" s="9"/>
-      <c r="V262" s="9"/>
-      <c r="W262" s="9"/>
-      <c r="X262" s="9"/>
-      <c r="Y262" s="9"/>
     </row>
     <row r="263" spans="1:25">
       <c r="A263" s="2" t="s">
@@ -16894,13 +15195,6 @@
       <c r="R263" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S263" s="9"/>
-      <c r="T263" s="9"/>
-      <c r="U263" s="9"/>
-      <c r="V263" s="9"/>
-      <c r="W263" s="9"/>
-      <c r="X263" s="9"/>
-      <c r="Y263" s="9"/>
     </row>
     <row r="264" spans="1:25">
       <c r="A264" s="9"/>
@@ -16921,13 +15215,6 @@
       <c r="P264" s="9"/>
       <c r="Q264" s="9"/>
       <c r="R264" s="9"/>
-      <c r="S264" s="9"/>
-      <c r="T264" s="9"/>
-      <c r="U264" s="9"/>
-      <c r="V264" s="9"/>
-      <c r="W264" s="9"/>
-      <c r="X264" s="9"/>
-      <c r="Y264" s="9"/>
     </row>
     <row r="265" spans="1:25">
       <c r="A265" s="9"/>
@@ -16950,13 +15237,6 @@
       <c r="P265" s="14"/>
       <c r="Q265" s="14"/>
       <c r="R265" s="14"/>
-      <c r="S265" s="14"/>
-      <c r="T265" s="14"/>
-      <c r="U265" s="14"/>
-      <c r="V265" s="9"/>
-      <c r="W265" s="9"/>
-      <c r="X265" s="3"/>
-      <c r="Y265" s="3"/>
     </row>
     <row r="266" spans="1:25">
       <c r="A266" s="11" t="s">
@@ -16979,15 +15259,8 @@
       <c r="P266" s="11"/>
       <c r="Q266" s="11"/>
       <c r="R266" s="11"/>
-      <c r="S266" s="11"/>
-      <c r="T266" s="11"/>
-      <c r="U266" s="11"/>
-      <c r="V266" s="11"/>
-      <c r="W266" s="11"/>
-      <c r="X266" s="11"/>
-      <c r="Y266" s="11"/>
-    </row>
-    <row r="267" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="267" spans="1:25">
       <c r="A267" s="4" t="s">
         <v>29</v>
       </c>
@@ -17032,13 +15305,6 @@
       <c r="R267" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S267" s="9"/>
-      <c r="T267" s="9"/>
-      <c r="U267" s="9"/>
-      <c r="V267" s="9"/>
-      <c r="W267" s="9"/>
-      <c r="X267" s="9"/>
-      <c r="Y267" s="9"/>
     </row>
     <row r="268" spans="1:25">
       <c r="A268" s="2" t="s">
@@ -17085,13 +15351,6 @@
       <c r="R268" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S268" s="9"/>
-      <c r="T268" s="9"/>
-      <c r="U268" s="9"/>
-      <c r="V268" s="9"/>
-      <c r="W268" s="9"/>
-      <c r="X268" s="9"/>
-      <c r="Y268" s="9"/>
     </row>
     <row r="269" spans="1:25">
       <c r="A269" s="2" t="s">
@@ -17138,13 +15397,6 @@
       <c r="R269" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S269" s="9"/>
-      <c r="T269" s="9"/>
-      <c r="U269" s="9"/>
-      <c r="V269" s="9"/>
-      <c r="W269" s="9"/>
-      <c r="X269" s="9"/>
-      <c r="Y269" s="9"/>
     </row>
     <row r="270" spans="1:25">
       <c r="A270" s="2" t="s">
@@ -17191,13 +15443,6 @@
       <c r="R270" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="S270" s="9"/>
-      <c r="T270" s="9"/>
-      <c r="U270" s="9"/>
-      <c r="V270" s="9"/>
-      <c r="W270" s="9"/>
-      <c r="X270" s="9"/>
-      <c r="Y270" s="9"/>
     </row>
     <row r="271" spans="1:25">
       <c r="A271" s="2" t="s">
@@ -17244,13 +15489,6 @@
       <c r="R271" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S271" s="9"/>
-      <c r="T271" s="9"/>
-      <c r="U271" s="9"/>
-      <c r="V271" s="9"/>
-      <c r="W271" s="9"/>
-      <c r="X271" s="9"/>
-      <c r="Y271" s="9"/>
     </row>
     <row r="272" spans="1:25">
       <c r="A272" s="2" t="s">
@@ -17297,15 +15535,8 @@
       <c r="R272" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="S272" s="9"/>
-      <c r="T272" s="9"/>
-      <c r="U272" s="9"/>
-      <c r="V272" s="9"/>
-      <c r="W272" s="9"/>
-      <c r="X272" s="9"/>
-      <c r="Y272" s="9"/>
-    </row>
-    <row r="273" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="273" spans="1:25">
       <c r="A273" s="2" t="s">
         <v>481</v>
       </c>
@@ -17350,13 +15581,6 @@
       <c r="R273" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="S273" s="9"/>
-      <c r="T273" s="9"/>
-      <c r="U273" s="9"/>
-      <c r="V273" s="9"/>
-      <c r="W273" s="9"/>
-      <c r="X273" s="9"/>
-      <c r="Y273" s="9"/>
     </row>
     <row r="274" spans="1:25">
       <c r="A274" s="2" t="s">
@@ -17403,13 +15627,6 @@
       <c r="R274" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="S274" s="9"/>
-      <c r="T274" s="9"/>
-      <c r="U274" s="9"/>
-      <c r="V274" s="9"/>
-      <c r="W274" s="9"/>
-      <c r="X274" s="9"/>
-      <c r="Y274" s="9"/>
     </row>
     <row r="275" spans="1:25">
       <c r="A275" s="2" t="s">
@@ -17456,13 +15673,6 @@
       <c r="R275" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="S275" s="9"/>
-      <c r="T275" s="9"/>
-      <c r="U275" s="9"/>
-      <c r="V275" s="9"/>
-      <c r="W275" s="9"/>
-      <c r="X275" s="9"/>
-      <c r="Y275" s="9"/>
     </row>
     <row r="276" spans="1:25">
       <c r="A276" s="2" t="s">
@@ -17509,13 +15719,6 @@
       <c r="R276" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S276" s="9"/>
-      <c r="T276" s="9"/>
-      <c r="U276" s="9"/>
-      <c r="V276" s="9"/>
-      <c r="W276" s="9"/>
-      <c r="X276" s="9"/>
-      <c r="Y276" s="9"/>
     </row>
     <row r="277" spans="1:25">
       <c r="A277" s="9"/>
@@ -17536,13 +15739,6 @@
       <c r="P277" s="9"/>
       <c r="Q277" s="9"/>
       <c r="R277" s="9"/>
-      <c r="S277" s="9"/>
-      <c r="T277" s="9"/>
-      <c r="U277" s="9"/>
-      <c r="V277" s="9"/>
-      <c r="W277" s="9"/>
-      <c r="X277" s="9"/>
-      <c r="Y277" s="9"/>
     </row>
     <row r="278" spans="1:25">
       <c r="A278" s="11" t="s">
@@ -17565,15 +15761,8 @@
       <c r="P278" s="11"/>
       <c r="Q278" s="11"/>
       <c r="R278" s="11"/>
-      <c r="S278" s="11"/>
-      <c r="T278" s="11"/>
-      <c r="U278" s="11"/>
-      <c r="V278" s="11"/>
-      <c r="W278" s="11"/>
-      <c r="X278" s="11"/>
-      <c r="Y278" s="11"/>
-    </row>
-    <row r="279" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="279" spans="1:25">
       <c r="A279" s="4" t="s">
         <v>29</v>
       </c>
@@ -17618,13 +15807,6 @@
       <c r="R279" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S279" s="9"/>
-      <c r="T279" s="9"/>
-      <c r="U279" s="9"/>
-      <c r="V279" s="9"/>
-      <c r="W279" s="9"/>
-      <c r="X279" s="9"/>
-      <c r="Y279" s="9"/>
     </row>
     <row r="280" spans="1:25">
       <c r="A280" s="2" t="s">
@@ -17671,13 +15853,6 @@
       <c r="R280" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="S280" s="9"/>
-      <c r="T280" s="9"/>
-      <c r="U280" s="9"/>
-      <c r="V280" s="9"/>
-      <c r="W280" s="9"/>
-      <c r="X280" s="9"/>
-      <c r="Y280" s="9"/>
     </row>
     <row r="281" spans="1:25">
       <c r="A281" s="2" t="s">
@@ -17724,13 +15899,6 @@
       <c r="R281" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="S281" s="9"/>
-      <c r="T281" s="9"/>
-      <c r="U281" s="9"/>
-      <c r="V281" s="9"/>
-      <c r="W281" s="9"/>
-      <c r="X281" s="9"/>
-      <c r="Y281" s="9"/>
     </row>
     <row r="282" spans="1:25">
       <c r="A282" s="2" t="s">
@@ -17777,15 +15945,8 @@
       <c r="R282" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S282" s="9"/>
-      <c r="T282" s="9"/>
-      <c r="U282" s="9"/>
-      <c r="V282" s="9"/>
-      <c r="W282" s="9"/>
-      <c r="X282" s="9"/>
-      <c r="Y282" s="9"/>
-    </row>
-    <row r="283" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="283" spans="1:25">
       <c r="A283" s="2" t="s">
         <v>1019</v>
       </c>
@@ -17830,13 +15991,6 @@
       <c r="R283" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="S283" s="9"/>
-      <c r="T283" s="9"/>
-      <c r="U283" s="9"/>
-      <c r="V283" s="9"/>
-      <c r="W283" s="9"/>
-      <c r="X283" s="9"/>
-      <c r="Y283" s="9"/>
     </row>
     <row r="284" spans="1:25">
       <c r="A284" s="2" t="s">
@@ -17883,13 +16037,6 @@
       <c r="R284" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="S284" s="9"/>
-      <c r="T284" s="9"/>
-      <c r="U284" s="9"/>
-      <c r="V284" s="9"/>
-      <c r="W284" s="9"/>
-      <c r="X284" s="9"/>
-      <c r="Y284" s="9"/>
     </row>
     <row r="285" spans="1:25">
       <c r="A285" s="2" t="s">
@@ -17936,13 +16083,6 @@
       <c r="R285" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="S285" s="9"/>
-      <c r="T285" s="9"/>
-      <c r="U285" s="9"/>
-      <c r="V285" s="9"/>
-      <c r="W285" s="9"/>
-      <c r="X285" s="9"/>
-      <c r="Y285" s="9"/>
     </row>
     <row r="286" spans="1:25">
       <c r="A286" s="2" t="s">
@@ -17989,13 +16129,6 @@
       <c r="R286" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S286" s="9"/>
-      <c r="T286" s="9"/>
-      <c r="U286" s="9"/>
-      <c r="V286" s="9"/>
-      <c r="W286" s="9"/>
-      <c r="X286" s="9"/>
-      <c r="Y286" s="9"/>
     </row>
     <row r="287" spans="1:25">
       <c r="A287" s="2" t="s">
@@ -18042,13 +16175,6 @@
       <c r="R287" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S287" s="9"/>
-      <c r="T287" s="9"/>
-      <c r="U287" s="9"/>
-      <c r="V287" s="9"/>
-      <c r="W287" s="9"/>
-      <c r="X287" s="9"/>
-      <c r="Y287" s="9"/>
     </row>
     <row r="288" spans="1:25">
       <c r="A288" s="2" t="s">
@@ -18095,13 +16221,6 @@
       <c r="R288" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S288" s="9"/>
-      <c r="T288" s="9"/>
-      <c r="U288" s="9"/>
-      <c r="V288" s="9"/>
-      <c r="W288" s="9"/>
-      <c r="X288" s="9"/>
-      <c r="Y288" s="9"/>
     </row>
     <row r="289" spans="1:25">
       <c r="A289" s="9"/>
@@ -18122,13 +16241,6 @@
       <c r="P289" s="9"/>
       <c r="Q289" s="9"/>
       <c r="R289" s="9"/>
-      <c r="S289" s="9"/>
-      <c r="T289" s="9"/>
-      <c r="U289" s="9"/>
-      <c r="V289" s="9"/>
-      <c r="W289" s="9"/>
-      <c r="X289" s="9"/>
-      <c r="Y289" s="9"/>
     </row>
     <row r="290" spans="1:25">
       <c r="A290" s="11" t="s">
@@ -18151,15 +16263,8 @@
       <c r="P290" s="11"/>
       <c r="Q290" s="11"/>
       <c r="R290" s="11"/>
-      <c r="S290" s="11"/>
-      <c r="T290" s="11"/>
-      <c r="U290" s="11"/>
-      <c r="V290" s="11"/>
-      <c r="W290" s="11"/>
-      <c r="X290" s="11"/>
-      <c r="Y290" s="11"/>
-    </row>
-    <row r="291" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="291" spans="1:25">
       <c r="A291" s="4" t="s">
         <v>29</v>
       </c>
@@ -18204,13 +16309,6 @@
       <c r="R291" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S291" s="9"/>
-      <c r="T291" s="9"/>
-      <c r="U291" s="9"/>
-      <c r="V291" s="9"/>
-      <c r="W291" s="9"/>
-      <c r="X291" s="9"/>
-      <c r="Y291" s="9"/>
     </row>
     <row r="292" spans="1:25">
       <c r="A292" s="2" t="s">
@@ -18257,13 +16355,6 @@
       <c r="R292" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="S292" s="9"/>
-      <c r="T292" s="9"/>
-      <c r="U292" s="9"/>
-      <c r="V292" s="9"/>
-      <c r="W292" s="9"/>
-      <c r="X292" s="9"/>
-      <c r="Y292" s="9"/>
     </row>
     <row r="293" spans="1:25">
       <c r="A293" s="2" t="s">
@@ -18310,13 +16401,6 @@
       <c r="R293" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="S293" s="9"/>
-      <c r="T293" s="9"/>
-      <c r="U293" s="9"/>
-      <c r="V293" s="9"/>
-      <c r="W293" s="9"/>
-      <c r="X293" s="9"/>
-      <c r="Y293" s="9"/>
     </row>
     <row r="294" spans="1:25">
       <c r="A294" s="2" t="s">
@@ -18363,15 +16447,8 @@
       <c r="R294" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="S294" s="9"/>
-      <c r="T294" s="9"/>
-      <c r="U294" s="9"/>
-      <c r="V294" s="9"/>
-      <c r="W294" s="9"/>
-      <c r="X294" s="9"/>
-      <c r="Y294" s="9"/>
-    </row>
-    <row r="295" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="295" spans="1:25">
       <c r="A295" s="2" t="s">
         <v>1058</v>
       </c>
@@ -18416,13 +16493,6 @@
       <c r="R295" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="S295" s="9"/>
-      <c r="T295" s="9"/>
-      <c r="U295" s="9"/>
-      <c r="V295" s="9"/>
-      <c r="W295" s="9"/>
-      <c r="X295" s="9"/>
-      <c r="Y295" s="9"/>
     </row>
     <row r="296" spans="1:25">
       <c r="A296" s="2" t="s">
@@ -18469,15 +16539,8 @@
       <c r="R296" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="S296" s="9"/>
-      <c r="T296" s="9"/>
-      <c r="U296" s="9"/>
-      <c r="V296" s="9"/>
-      <c r="W296" s="9"/>
-      <c r="X296" s="9"/>
-      <c r="Y296" s="9"/>
-    </row>
-    <row r="297" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="297" spans="1:25">
       <c r="A297" s="2" t="s">
         <v>1069</v>
       </c>
@@ -18522,13 +16585,6 @@
       <c r="R297" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="S297" s="9"/>
-      <c r="T297" s="9"/>
-      <c r="U297" s="9"/>
-      <c r="V297" s="9"/>
-      <c r="W297" s="9"/>
-      <c r="X297" s="9"/>
-      <c r="Y297" s="9"/>
     </row>
     <row r="298" spans="1:25">
       <c r="A298" s="2" t="s">
@@ -18575,13 +16631,6 @@
       <c r="R298" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S298" s="9"/>
-      <c r="T298" s="9"/>
-      <c r="U298" s="9"/>
-      <c r="V298" s="9"/>
-      <c r="W298" s="9"/>
-      <c r="X298" s="9"/>
-      <c r="Y298" s="9"/>
     </row>
     <row r="299" spans="1:25">
       <c r="A299" s="2" t="s">
@@ -18628,13 +16677,6 @@
       <c r="R299" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="S299" s="9"/>
-      <c r="T299" s="9"/>
-      <c r="U299" s="9"/>
-      <c r="V299" s="9"/>
-      <c r="W299" s="9"/>
-      <c r="X299" s="9"/>
-      <c r="Y299" s="9"/>
     </row>
     <row r="300" spans="1:25">
       <c r="A300" s="2" t="s">
@@ -18681,13 +16723,6 @@
       <c r="R300" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="S300" s="9"/>
-      <c r="T300" s="9"/>
-      <c r="U300" s="9"/>
-      <c r="V300" s="9"/>
-      <c r="W300" s="9"/>
-      <c r="X300" s="9"/>
-      <c r="Y300" s="9"/>
     </row>
     <row r="301" spans="1:25">
       <c r="A301" s="2" t="s">
@@ -18734,13 +16769,6 @@
       <c r="R301" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S301" s="9"/>
-      <c r="T301" s="9"/>
-      <c r="U301" s="9"/>
-      <c r="V301" s="9"/>
-      <c r="W301" s="9"/>
-      <c r="X301" s="9"/>
-      <c r="Y301" s="9"/>
     </row>
     <row r="302" spans="1:25">
       <c r="A302" s="9"/>
@@ -18761,13 +16789,6 @@
       <c r="P302" s="9"/>
       <c r="Q302" s="9"/>
       <c r="R302" s="9"/>
-      <c r="S302" s="9"/>
-      <c r="T302" s="9"/>
-      <c r="U302" s="9"/>
-      <c r="V302" s="9"/>
-      <c r="W302" s="9"/>
-      <c r="X302" s="9"/>
-      <c r="Y302" s="9"/>
     </row>
     <row r="303" spans="1:25">
       <c r="A303" s="7"/>
@@ -18788,7 +16809,6 @@
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
       <c r="R303" s="7"/>
-      <c r="S303" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1056">

--- a/food-service/2021/2021-q2-nutrient-analysis-wk4.xlsx
+++ b/food-service/2021/2021-q2-nutrient-analysis-wk4.xlsx
@@ -3351,7 +3351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
@@ -4495,7 +4495,6 @@
     <col min="16" max="16" width="2.140625" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
